--- a/data/income_statement/2digits/size/26_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/26_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>26-Manufacture of computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>26-Manufacture of computer, electronic and optical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,875 +841,990 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>372925.762</v>
+        <v>421485.0678</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>360933.41495</v>
+        <v>415046.0094</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>410049.66638</v>
+        <v>462719.37864</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>418161.38837</v>
+        <v>452397.92762</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>633160.4124400001</v>
+        <v>694313.69258</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>720712.06299</v>
+        <v>778974.76993</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>817298.3390800001</v>
+        <v>901026.5856900001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>895898.8716500001</v>
+        <v>1011393.30116</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>942804.5980699999</v>
+        <v>1073975.4965</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2022303.44439</v>
+        <v>2178754.15033</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2235386.1428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2439667.30267</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2945848.375</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>334294.0981899999</v>
+        <v>361945.5552000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>321612.73297</v>
+        <v>368400.0769</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>376348.48764</v>
+        <v>418125.01918</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>371639.31297</v>
+        <v>395252.45568</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>553847.65024</v>
+        <v>600130.9258</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>646457.8883900001</v>
+        <v>691457.3719299999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>719988.24781</v>
+        <v>786276.3221300001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>788801.54083</v>
+        <v>887559.65183</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>825345.18514</v>
+        <v>937709.02926</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1728657.333</v>
+        <v>1849063.56603</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1887536.8704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2005098.86943</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2355242.742</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>31994.6555</v>
+        <v>45240.69877</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>33049.11375</v>
+        <v>39470.52168999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>28612.03598</v>
+        <v>39043.59695000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>41504.34665000001</v>
+        <v>51012.33370999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>71942.54427</v>
+        <v>85602.34803000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>61760.38481</v>
+        <v>73596.40857</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>87319.64287000001</v>
+        <v>99498.93112000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>92267.14081999999</v>
+        <v>101107.24903</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>103485.69462</v>
+        <v>116043.70126</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>260216.42614</v>
+        <v>286692.24751</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>303180.0963099999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>380330.28412</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>487417.397</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6637.00831</v>
+        <v>14298.81383</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6271.56823</v>
+        <v>7175.41081</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5089.14276</v>
+        <v>5550.76251</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5017.72875</v>
+        <v>6133.13823</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7370.217930000001</v>
+        <v>8580.418750000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12493.78979</v>
+        <v>13920.98943</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9990.448399999999</v>
+        <v>15251.33244</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>14830.19</v>
+        <v>22726.4003</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>13973.71831</v>
+        <v>20222.76598</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>33429.68525</v>
+        <v>42998.33679</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>44669.17608999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54238.14911999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>103188.236</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7295.28895</v>
+        <v>11732.51476</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7625.665529999999</v>
+        <v>9885.73547</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6587.931439999999</v>
+        <v>8087.862</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9432.69714</v>
+        <v>10534.30348</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12683.50999</v>
+        <v>13551.83975</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11774.25336</v>
+        <v>14358.39055</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12430.36153</v>
+        <v>12557.24081</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12488.41842</v>
+        <v>16371.27365</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>13721.22457</v>
+        <v>19493.19934</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>42049.56469</v>
+        <v>46300.19589</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34827.23252000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>42919.66835</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>118416.277</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5347.240059999999</v>
+        <v>6761.10953</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5451.52845</v>
+        <v>6417.05559</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4604.541480000001</v>
+        <v>6085.01104</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7314.37551</v>
+        <v>8032.50586</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9414.705390000001</v>
+        <v>10202.99197</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9413.90258</v>
+        <v>10394.9854</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10053.6109</v>
+        <v>10125.43628</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9418.024150000001</v>
+        <v>11900.31841</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11327.01459</v>
+        <v>14874.26964</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>32996.48445</v>
+        <v>37151.72276</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>29750.79475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38057.92512000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>108654.411</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1767.15101</v>
+        <v>3283.47265</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1756.15446</v>
+        <v>2988.1701</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1849.27703</v>
+        <v>1844.94927</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1942.30772</v>
+        <v>2316.27586</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3039.10562</v>
+        <v>3049.49281</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1975.13219</v>
+        <v>3544.67516</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2049.86327</v>
+        <v>2027.2536</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2803.32456</v>
+        <v>4167.36514</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2097.52503</v>
+        <v>4205.46513</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8108.991230000001</v>
+        <v>8078.07579</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4534.451160000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4262.197990000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8422.761</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>180.89788</v>
+        <v>1687.93258</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>417.98262</v>
+        <v>480.50978</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>134.11293</v>
+        <v>157.90169</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>176.01391</v>
+        <v>185.52176</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>229.69898</v>
+        <v>299.35497</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>385.2185900000001</v>
+        <v>418.72999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>326.8873599999999</v>
+        <v>404.5509300000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>267.06971</v>
+        <v>303.5900999999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>296.68495</v>
+        <v>413.46457</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>944.08901</v>
+        <v>1070.39734</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>541.98661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>599.54524</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1339.105</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>365630.47305</v>
+        <v>409752.55304</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>353307.7494199999</v>
+        <v>405160.27393</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>403461.73494</v>
+        <v>454631.51664</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>408728.69123</v>
+        <v>441863.62414</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>620476.9024500001</v>
+        <v>680761.8528299999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>708937.8096299999</v>
+        <v>764616.3793799998</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>804867.97755</v>
+        <v>888469.34488</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>883410.45323</v>
+        <v>995022.02751</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>929083.3735</v>
+        <v>1054482.29716</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1980253.8797</v>
+        <v>2132453.95444</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2200558.91028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2396747.63432</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2827432.098</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>279606.74052</v>
+        <v>309182.7112</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>266686.07502</v>
+        <v>303612.80225</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>307689.34116</v>
+        <v>346198.8228200001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>300172.08816</v>
+        <v>325161.2563</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>461620.32092</v>
+        <v>509225.31974</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>527154.16041</v>
+        <v>564339.9951299999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>599631.2655799999</v>
+        <v>648495.90101</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>657112.89101</v>
+        <v>732443.13662</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>675339.07045</v>
+        <v>761236.2127799999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1461751.41852</v>
+        <v>1548423.05873</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1646512.09929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1774951.8698</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2090791.908</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>160552.54807</v>
+        <v>183711.45026</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>159373.6882</v>
+        <v>183236.22932</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>189994.43931</v>
+        <v>221950.51949</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>187783.37767</v>
+        <v>198846.94386</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>303006.74518</v>
+        <v>334520.8083</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>358514.16093</v>
+        <v>382647.98278</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>384138.00677</v>
+        <v>414123.67508</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>424049.40348</v>
+        <v>475215.16678</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>402212.64821</v>
+        <v>452441.44791</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>891903.4659399999</v>
+        <v>949186.97548</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>888853.7156900001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>993805.3798</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1259165.624</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>99580.22018</v>
+        <v>101448.84392</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>77790.15061</v>
+        <v>86581.74840000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>93238.95779999999</v>
+        <v>98907.84883</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>93175.70671</v>
+        <v>106461.46417</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>132947.05293</v>
+        <v>147587.23965</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>133322.66483</v>
+        <v>142430.35288</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>165643.60747</v>
+        <v>176460.8108</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>179364.40818</v>
+        <v>195464.8751</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>210802.82737</v>
+        <v>234624.55896</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>489076.018</v>
+        <v>507077.07165</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>648681.85497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>658251.6058200001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>667833.921</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>18833.70772</v>
+        <v>23246.10924</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26566.01054</v>
+        <v>31293.69999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16449.49615</v>
+        <v>17304.52818</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>18289.42449</v>
+        <v>18926.50324</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>23935.56783</v>
+        <v>25318.80867</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>33911.50984999999</v>
+        <v>38089.29162</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>47849.80466</v>
+        <v>55131.55586</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>50149.00474</v>
+        <v>57302.77415</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>60206.15936</v>
+        <v>70273.21358</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>75797.37523000001</v>
+        <v>87470.14500999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>102441.55192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>109853.54474</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>156475.726</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
+      </c>
+      <c r="C18" s="48" t="n">
+        <v>776.30778</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>2501.12454</v>
+      </c>
+      <c r="E18" s="48" t="n">
+        <v>8035.92632</v>
+      </c>
+      <c r="F18" s="48" t="n">
+        <v>926.3450300000001</v>
+      </c>
+      <c r="G18" s="48" t="n">
+        <v>1798.46312</v>
+      </c>
+      <c r="H18" s="48" t="n">
+        <v>1172.36785</v>
+      </c>
+      <c r="I18" s="48" t="n">
+        <v>2779.85927</v>
+      </c>
+      <c r="J18" s="48" t="n">
+        <v>4460.32059</v>
+      </c>
+      <c r="K18" s="48" t="n">
+        <v>3896.99233</v>
+      </c>
+      <c r="L18" s="48" t="n">
+        <v>4688.86659</v>
+      </c>
+      <c r="M18" s="48" t="n">
+        <v>13041.33944</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7316.637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>100569.84184</v>
+      </c>
+      <c r="D19" s="47" t="n">
+        <v>101547.47168</v>
+      </c>
+      <c r="E19" s="47" t="n">
+        <v>108432.69382</v>
+      </c>
+      <c r="F19" s="47" t="n">
+        <v>116702.36784</v>
+      </c>
+      <c r="G19" s="47" t="n">
+        <v>171536.53309</v>
+      </c>
+      <c r="H19" s="47" t="n">
+        <v>200276.38425</v>
+      </c>
+      <c r="I19" s="47" t="n">
+        <v>239973.44387</v>
+      </c>
+      <c r="J19" s="47" t="n">
+        <v>262578.89089</v>
+      </c>
+      <c r="K19" s="47" t="n">
+        <v>293246.08438</v>
+      </c>
+      <c r="L19" s="47" t="n">
+        <v>584030.8957100001</v>
+      </c>
+      <c r="M19" s="47" t="n">
+        <v>621795.76452</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>736640.1899999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
+      </c>
+      <c r="C20" s="46" t="n">
+        <v>71177.74104000001</v>
+      </c>
+      <c r="D20" s="47" t="n">
+        <v>79150.70042000001</v>
+      </c>
+      <c r="E20" s="47" t="n">
+        <v>79285.98114</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>85339.05499999999</v>
+      </c>
+      <c r="G20" s="47" t="n">
+        <v>128342.01315</v>
+      </c>
+      <c r="H20" s="47" t="n">
+        <v>139773.04237</v>
+      </c>
+      <c r="I20" s="47" t="n">
+        <v>152499.6578</v>
+      </c>
+      <c r="J20" s="47" t="n">
+        <v>183943.88798</v>
+      </c>
+      <c r="K20" s="47" t="n">
+        <v>194697.2739</v>
+      </c>
+      <c r="L20" s="47" t="n">
+        <v>339773.37265</v>
+      </c>
+      <c r="M20" s="47" t="n">
+        <v>396605.3407</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>418047.232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
+      </c>
+      <c r="C21" s="48" t="n">
+        <v>3313.59055</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>5036.0018</v>
+      </c>
+      <c r="E21" s="48" t="n">
+        <v>6495.94093</v>
+      </c>
+      <c r="F21" s="48" t="n">
+        <v>7584.686479999999</v>
+      </c>
+      <c r="G21" s="48" t="n">
+        <v>10471.04192</v>
+      </c>
+      <c r="H21" s="48" t="n">
+        <v>10494.20988</v>
+      </c>
+      <c r="I21" s="48" t="n">
+        <v>12312.46799</v>
+      </c>
+      <c r="J21" s="48" t="n">
+        <v>16434.5447</v>
+      </c>
+      <c r="K21" s="48" t="n">
+        <v>19728.54228</v>
+      </c>
+      <c r="L21" s="48" t="n">
+        <v>40368.28887</v>
+      </c>
+      <c r="M21" s="48" t="n">
+        <v>45636.56089</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>53236.568</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
+      </c>
+      <c r="C22" s="48" t="n">
+        <v>16725.38476</v>
+      </c>
+      <c r="D22" s="48" t="n">
+        <v>17925.88377</v>
+      </c>
+      <c r="E22" s="48" t="n">
+        <v>16092.8231</v>
+      </c>
+      <c r="F22" s="48" t="n">
+        <v>19308.77096</v>
+      </c>
+      <c r="G22" s="48" t="n">
+        <v>29707.84255</v>
+      </c>
+      <c r="H22" s="48" t="n">
+        <v>29203.16744</v>
+      </c>
+      <c r="I22" s="48" t="n">
+        <v>36456.60211</v>
+      </c>
+      <c r="J22" s="48" t="n">
+        <v>35808.99563</v>
+      </c>
+      <c r="K22" s="48" t="n">
+        <v>34798.64493</v>
+      </c>
+      <c r="L22" s="48" t="n">
+        <v>74576.48041999999</v>
+      </c>
+      <c r="M22" s="48" t="n">
+        <v>96574.67834</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>87649.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
+      </c>
+      <c r="C23" s="48" t="n">
+        <v>51138.76573</v>
+      </c>
+      <c r="D23" s="48" t="n">
+        <v>56188.81485</v>
+      </c>
+      <c r="E23" s="48" t="n">
+        <v>56697.21711</v>
+      </c>
+      <c r="F23" s="48" t="n">
+        <v>58445.59756</v>
+      </c>
+      <c r="G23" s="48" t="n">
+        <v>88163.12867999999</v>
+      </c>
+      <c r="H23" s="48" t="n">
+        <v>100075.66505</v>
+      </c>
+      <c r="I23" s="48" t="n">
+        <v>103730.5877</v>
+      </c>
+      <c r="J23" s="48" t="n">
+        <v>131700.34765</v>
+      </c>
+      <c r="K23" s="48" t="n">
+        <v>140170.08669</v>
+      </c>
+      <c r="L23" s="48" t="n">
+        <v>224828.60336</v>
+      </c>
+      <c r="M23" s="48" t="n">
+        <v>254394.10147</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>277160.824</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
+      </c>
+      <c r="C24" s="46" t="n">
+        <v>29392.1008</v>
+      </c>
+      <c r="D24" s="47" t="n">
+        <v>22396.77126</v>
+      </c>
+      <c r="E24" s="47" t="n">
+        <v>29146.71268</v>
+      </c>
+      <c r="F24" s="47" t="n">
+        <v>31363.31284</v>
+      </c>
+      <c r="G24" s="47" t="n">
+        <v>43194.51994</v>
+      </c>
+      <c r="H24" s="47" t="n">
+        <v>60503.34187999999</v>
+      </c>
+      <c r="I24" s="47" t="n">
+        <v>87473.78606999999</v>
+      </c>
+      <c r="J24" s="47" t="n">
+        <v>78635.00291</v>
+      </c>
+      <c r="K24" s="47" t="n">
+        <v>98548.81048</v>
+      </c>
+      <c r="L24" s="47" t="n">
+        <v>244257.52306</v>
+      </c>
+      <c r="M24" s="47" t="n">
+        <v>225190.42382</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>318592.958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
+      </c>
+      <c r="C25" s="46" t="n">
+        <v>14691.50665</v>
+      </c>
+      <c r="D25" s="47" t="n">
+        <v>12684.16339</v>
+      </c>
+      <c r="E25" s="47" t="n">
+        <v>10532.1762</v>
+      </c>
+      <c r="F25" s="47" t="n">
+        <v>27666.76334</v>
+      </c>
+      <c r="G25" s="47" t="n">
+        <v>33653.97134</v>
+      </c>
+      <c r="H25" s="47" t="n">
+        <v>17437.35021</v>
+      </c>
+      <c r="I25" s="47" t="n">
+        <v>26881.53723</v>
+      </c>
+      <c r="J25" s="47" t="n">
+        <v>36575.97071</v>
+      </c>
+      <c r="K25" s="47" t="n">
+        <v>33461.16825</v>
+      </c>
+      <c r="L25" s="47" t="n">
+        <v>211805.40079</v>
+      </c>
+      <c r="M25" s="47" t="n">
+        <v>155344.9243</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>187997.554</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n"/>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
+      </c>
+      <c r="C26" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48" t="n">
+        <v>3.08826</v>
+      </c>
+      <c r="E26" s="48" t="n">
+        <v>23.80584</v>
+      </c>
+      <c r="F26" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="48" t="n">
-        <v>640.2645500000001</v>
-      </c>
-      <c r="D18" s="48" t="n">
-        <v>2956.22567</v>
-      </c>
-      <c r="E18" s="48" t="n">
-        <v>8006.4479</v>
-      </c>
-      <c r="F18" s="48" t="n">
-        <v>923.5792899999999</v>
-      </c>
-      <c r="G18" s="48" t="n">
-        <v>1730.95498</v>
-      </c>
-      <c r="H18" s="48" t="n">
-        <v>1405.8248</v>
-      </c>
-      <c r="I18" s="48" t="n">
-        <v>1999.84668</v>
-      </c>
-      <c r="J18" s="48" t="n">
-        <v>3550.07461</v>
-      </c>
-      <c r="K18" s="48" t="n">
-        <v>2117.43551</v>
-      </c>
-      <c r="L18" s="48" t="n">
-        <v>4974.55935</v>
-      </c>
-      <c r="M18" s="48" t="n">
-        <v>6534.976710000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>86023.73253000001</v>
-      </c>
-      <c r="D19" s="47" t="n">
-        <v>86621.6744</v>
-      </c>
-      <c r="E19" s="47" t="n">
-        <v>95772.39378</v>
-      </c>
-      <c r="F19" s="47" t="n">
-        <v>108556.60307</v>
-      </c>
-      <c r="G19" s="47" t="n">
-        <v>158856.58153</v>
-      </c>
-      <c r="H19" s="47" t="n">
-        <v>181783.64922</v>
-      </c>
-      <c r="I19" s="47" t="n">
-        <v>205236.71197</v>
-      </c>
-      <c r="J19" s="47" t="n">
-        <v>226297.56222</v>
-      </c>
-      <c r="K19" s="47" t="n">
-        <v>253744.30305</v>
-      </c>
-      <c r="L19" s="47" t="n">
-        <v>518502.46118</v>
-      </c>
-      <c r="M19" s="47" t="n">
-        <v>554046.81099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="46" t="n">
-        <v>60294.81142</v>
-      </c>
-      <c r="D20" s="47" t="n">
-        <v>66113.97765999999</v>
-      </c>
-      <c r="E20" s="47" t="n">
-        <v>71407.19710999999</v>
-      </c>
-      <c r="F20" s="47" t="n">
-        <v>79466.01156999999</v>
-      </c>
-      <c r="G20" s="47" t="n">
-        <v>116616.95022</v>
-      </c>
-      <c r="H20" s="47" t="n">
-        <v>132279.17306</v>
-      </c>
-      <c r="I20" s="47" t="n">
-        <v>140639.96411</v>
-      </c>
-      <c r="J20" s="47" t="n">
-        <v>159898.44293</v>
-      </c>
-      <c r="K20" s="47" t="n">
-        <v>167926.37021</v>
-      </c>
-      <c r="L20" s="47" t="n">
-        <v>316838.96741</v>
-      </c>
-      <c r="M20" s="47" t="n">
-        <v>350217.1799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="48" t="n">
-        <v>2304.48204</v>
-      </c>
-      <c r="D21" s="48" t="n">
-        <v>4154.503519999999</v>
-      </c>
-      <c r="E21" s="48" t="n">
-        <v>5862.94877</v>
-      </c>
-      <c r="F21" s="48" t="n">
-        <v>6822.01475</v>
-      </c>
-      <c r="G21" s="48" t="n">
-        <v>9052.42619</v>
-      </c>
-      <c r="H21" s="48" t="n">
-        <v>10360.35198</v>
-      </c>
-      <c r="I21" s="48" t="n">
-        <v>12088.6409</v>
-      </c>
-      <c r="J21" s="48" t="n">
-        <v>12969.13478</v>
-      </c>
-      <c r="K21" s="48" t="n">
-        <v>15692.3461</v>
-      </c>
-      <c r="L21" s="48" t="n">
-        <v>37822.00016</v>
-      </c>
-      <c r="M21" s="48" t="n">
-        <v>40889.72857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="48" t="n">
-        <v>14964.67986</v>
-      </c>
-      <c r="D22" s="48" t="n">
-        <v>15530.80606</v>
-      </c>
-      <c r="E22" s="48" t="n">
-        <v>13984.31529</v>
-      </c>
-      <c r="F22" s="48" t="n">
-        <v>18289.79023</v>
-      </c>
-      <c r="G22" s="48" t="n">
-        <v>27260.57819</v>
-      </c>
-      <c r="H22" s="48" t="n">
-        <v>27860.90583</v>
-      </c>
-      <c r="I22" s="48" t="n">
-        <v>33296.26313</v>
-      </c>
-      <c r="J22" s="48" t="n">
-        <v>30568.59421</v>
-      </c>
-      <c r="K22" s="48" t="n">
-        <v>30854.30626</v>
-      </c>
-      <c r="L22" s="48" t="n">
-        <v>73358.40195999999</v>
-      </c>
-      <c r="M22" s="48" t="n">
-        <v>79874.81739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="48" t="n">
-        <v>43025.64952000001</v>
-      </c>
-      <c r="D23" s="48" t="n">
-        <v>46428.66808</v>
-      </c>
-      <c r="E23" s="48" t="n">
-        <v>51559.93305</v>
-      </c>
-      <c r="F23" s="48" t="n">
-        <v>54354.20659</v>
-      </c>
-      <c r="G23" s="48" t="n">
-        <v>80303.94584</v>
-      </c>
-      <c r="H23" s="48" t="n">
-        <v>94057.91525000001</v>
-      </c>
-      <c r="I23" s="48" t="n">
-        <v>95255.06008</v>
-      </c>
-      <c r="J23" s="48" t="n">
-        <v>116360.71394</v>
-      </c>
-      <c r="K23" s="48" t="n">
-        <v>121379.71785</v>
-      </c>
-      <c r="L23" s="48" t="n">
-        <v>205658.56529</v>
-      </c>
-      <c r="M23" s="48" t="n">
-        <v>229452.63394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="46" t="n">
-        <v>25728.92111</v>
-      </c>
-      <c r="D24" s="47" t="n">
-        <v>20507.69674</v>
-      </c>
-      <c r="E24" s="47" t="n">
-        <v>24365.19667</v>
-      </c>
-      <c r="F24" s="47" t="n">
-        <v>29090.5915</v>
-      </c>
-      <c r="G24" s="47" t="n">
-        <v>42239.63131</v>
-      </c>
-      <c r="H24" s="47" t="n">
-        <v>49504.47616000001</v>
-      </c>
-      <c r="I24" s="47" t="n">
-        <v>64596.74786</v>
-      </c>
-      <c r="J24" s="47" t="n">
-        <v>66399.11929</v>
-      </c>
-      <c r="K24" s="47" t="n">
-        <v>85817.93284000001</v>
-      </c>
-      <c r="L24" s="47" t="n">
-        <v>201663.49377</v>
-      </c>
-      <c r="M24" s="47" t="n">
-        <v>203829.63109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="46" t="n">
-        <v>8307.56142</v>
-      </c>
-      <c r="D25" s="47" t="n">
-        <v>5961.56219</v>
-      </c>
-      <c r="E25" s="47" t="n">
-        <v>7126.54019</v>
-      </c>
-      <c r="F25" s="47" t="n">
-        <v>5687.91444</v>
-      </c>
-      <c r="G25" s="47" t="n">
-        <v>10976.56938</v>
-      </c>
-      <c r="H25" s="47" t="n">
-        <v>13762.84889</v>
-      </c>
-      <c r="I25" s="47" t="n">
-        <v>26549.0983</v>
-      </c>
-      <c r="J25" s="47" t="n">
-        <v>21589.8762</v>
-      </c>
-      <c r="K25" s="47" t="n">
-        <v>25746.26433</v>
-      </c>
-      <c r="L25" s="47" t="n">
-        <v>120244.30835</v>
-      </c>
-      <c r="M25" s="47" t="n">
-        <v>79433.95860000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="48" t="n">
-        <v>31.79521</v>
-      </c>
-      <c r="D26" s="48" t="n">
-        <v>35.33188</v>
-      </c>
-      <c r="E26" s="48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F26" s="48" t="n">
-        <v>72.68535</v>
-      </c>
       <c r="G26" s="48" t="n">
-        <v>35.78158000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>189.00284</v>
+        <v>18.27631</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>443.53417</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>956.3347000000001</v>
+        <v>9218.641059999998</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>8303.5</v>
+        <v>2287.19997</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>1035.29412</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>41.89585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4761.49373</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>1.83913</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1820,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>7663.028969999999</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1835,61 +1851,71 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1467.74736</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>4500.13117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>261.30888</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>442.66531</v>
+        <v>1744.68919</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>485.20394</v>
+        <v>881.4773799999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>414.8086999999999</v>
+        <v>724.8086999999998</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>938.51267</v>
+        <v>1214.88317</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>768.4610399999999</v>
+        <v>1702.09775</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1717.6803</v>
+        <v>1912.86839</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1506.64325</v>
+        <v>2112.08405</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1667.95512</v>
+        <v>3114.6226</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2204.38475</v>
+        <v>5396.36532</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10140.88296</v>
+        <v>14189.82192</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>17216.08855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27847.94086</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>11599.843</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>39.80767</v>
+        <v>37.32748</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4.506879999999999</v>
+        <v>4.50688</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>30.8247</v>
@@ -1901,16 +1927,16 @@
         <v>5.575609999999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3.86</v>
+        <v>0.15201</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>17.70177</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>192.22128</v>
+        <v>347.39377</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>231.8114</v>
@@ -1918,134 +1944,154 @@
       <c r="M29" s="48" t="n">
         <v>606.24224</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>575.6900000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>208.50941</v>
+        <v>1437.63929</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>165.42902</v>
+        <v>1309.11078</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>116.30407</v>
+        <v>1262.57804</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7.78812</v>
+        <v>1205.15075</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>59.38845</v>
+        <v>1232.32069</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>240.03706</v>
+        <v>1431.21882</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>286.3194099999999</v>
+        <v>321.22622</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>288.02155</v>
+        <v>245.66254</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>264.09874</v>
+        <v>257</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>51.34744</v>
+        <v>28.38009</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>58.14887</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>181.758</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>110.43076</v>
+        <v>110.9729</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>26.06824</v>
+        <v>23.53214</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>63.6589</v>
+        <v>35.20900999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>42.87461</v>
+        <v>42.63038</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>40.40727</v>
+        <v>87.82704000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>51.97537</v>
+        <v>55.91073</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>141.57233</v>
+        <v>152.11678</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>39.45547999999999</v>
+        <v>28.82679</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>69.72194</v>
+        <v>52.42769000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>883.6385700000001</v>
+        <v>157.22722</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>578.63589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>540.4835</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3474.162</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4969.03468</v>
+        <v>7833.4617</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2349.99073</v>
+        <v>6699.81811</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5127.781410000001</v>
+        <v>6877.187</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2367.28464</v>
+        <v>22836.32527</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7936.172219999999</v>
+        <v>20976.31607</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8010.11404</v>
+        <v>11872.66421</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>14697.47739</v>
+        <v>19512.14412</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>13384.91547</v>
+        <v>18783.67536</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>11555.66126</v>
+        <v>16995.88803</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>99968.15304999999</v>
+        <v>148898.64044</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>47397.74167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>67130.56474000002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>143489.594</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>19.45716</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>323.76294</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2054,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>45.08078</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2072,13 +2118,18 @@
         <v>0.29021</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>939.84435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1083.1688</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>18.632</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.66183</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2490.65655</v>
+        <v>3491.45797</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2895.0315</v>
+        <v>3438.8669</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1365.65931</v>
+        <v>1577.76291</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2249.37757</v>
+        <v>2343.38229</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2130.78321</v>
+        <v>1941.72443</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3550.17928</v>
+        <v>2146.25974</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9455.849980000001</v>
+        <v>4766.26429</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5252.943880000001</v>
+        <v>5184.54236</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3156.67636</v>
+        <v>8124.89347</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7500.437359999999</v>
+        <v>47263.93539</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8095.23001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>53055.57268</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>28657.875</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>8805.43233</v>
+        <v>12069.07548</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5662.83792</v>
+        <v>8746.882280000002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6729.144789999999</v>
+        <v>10465.0863</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6411.70851</v>
+        <v>11657.87143</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6998.98191</v>
+        <v>15422.19606</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10762.30832</v>
+        <v>11270.98487</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11324.05014</v>
+        <v>16050.07859</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>20192.25118</v>
+        <v>23830.25192</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>11151.67989</v>
+        <v>17397.52416</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>84942.92243999999</v>
+        <v>159030.52458</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>48813.87981000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>64309.54041</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>113727.394</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2272.48107</v>
+        <v>2261.85246</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2527.063339999999</v>
+        <v>2526.59329</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>443.24426</v>
+        <v>444.99426</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2949.92369</v>
+        <v>2947.25209</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>190.62742</v>
+        <v>194.04931</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>204.75246</v>
+        <v>185.711</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>189.55124</v>
+        <v>191.43015</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>252.70726</v>
+        <v>257.58859</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>547.8122400000001</v>
+        <v>583.93849</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>400.00952</v>
+        <v>399.98327</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3751.43969</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3774.76844</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1247.386</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1021.66716</v>
+        <v>873.7872900000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>271.15549</v>
+        <v>383.76012</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>239.94824</v>
+        <v>271.85324</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>516.8406299999999</v>
+        <v>516.84063</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1116.09806</v>
+        <v>2042.254</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1423.34239</v>
+        <v>1157.14226</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>668.2916100000001</v>
+        <v>802.80499</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>10723.18789</v>
+        <v>1934.10603</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>884.7498499999998</v>
+        <v>1412.65426</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4333.41522</v>
+        <v>4051.76021</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4164.15362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3698.67199</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>819.215</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.35565</v>
+        <v>0.3551</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>2.07332</v>
@@ -2288,70 +2364,80 @@
         <v>0.03940999999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>23.80999</v>
+        <v>23.3415</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>78.20036999999999</v>
+        <v>78.20036</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.00132</v>
+        <v>1.95396</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7.95029</v>
+        <v>3.87177</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>577.6805700000001</v>
+        <v>9.629530000000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>301.31692</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1669.849</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5085.858</v>
+        <v>8151.33736</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2605.29667</v>
+        <v>4858.29773</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5572.28151</v>
+        <v>5778.038550000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2718.05616</v>
+        <v>3670.40942</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4995.675429999999</v>
+        <v>9425.271550000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8259.352070000001</v>
+        <v>9208.224749999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9709.29652</v>
+        <v>14603.0858</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7829.11534</v>
+        <v>20124.17025</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9353.462939999999</v>
+        <v>14569.46805</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>78357.32726000001</v>
+        <v>151492.81635</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>39103.61529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>49832.95839</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>105121.476</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15.07895</v>
@@ -2378,19 +2464,24 @@
         <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>153.35076</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>7.05067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>510.93655</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>143.324</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,137 +2516,157 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>409.9915</v>
+        <v>766.6643200000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>252.10187</v>
+        <v>971.0105900000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>449.56037</v>
+        <v>3946.08984</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>211.18203</v>
+        <v>4507.66329</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>667.5025000000001</v>
+        <v>3732.011190000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>795.9679</v>
+        <v>641.01337</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>756.90945</v>
+        <v>450.8036900000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1387.24069</v>
+        <v>1514.38705</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>344.8625</v>
+        <v>661.39876</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1273.44045</v>
+        <v>3075.2858</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1486.30361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6190.888109999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4726.144</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8284.220090000001</v>
+        <v>17895.91579</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6321.63021</v>
+        <v>66819.28802000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7195.0178</v>
+        <v>84205.65562000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9489.238740000001</v>
+        <v>20931.8719</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>12059.34899</v>
+        <v>115136.47372</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>13094.64209</v>
+        <v>19291.57476</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13095.81407</v>
+        <v>17615.63968</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15481.74113</v>
+        <v>20667.81868</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>15695.00208</v>
+        <v>19716.4481</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>47701.25624</v>
+        <v>56962.51443</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>50608.60686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>66755.59368000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>64588.35</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7812.37514</v>
+        <v>16471.30085</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6072.55883</v>
+        <v>66430.0775</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6997.22165</v>
+        <v>84165.08945</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9326.243110000001</v>
+        <v>20768.87627</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>11772.10359</v>
+        <v>114849.22832</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>12960.28096</v>
+        <v>19153.72493</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>12558.52301</v>
+        <v>17073.01658</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15088.84794</v>
+        <v>20477.53026</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>14117.47962</v>
+        <v>17899.80108</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>46458.78027</v>
+        <v>53583.19472</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>48484.19912</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>62875.09478</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>53466.515</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>471.84495</v>
+        <v>1424.61494</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>249.07138</v>
+        <v>389.21052</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>197.79615</v>
+        <v>40.56617</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>162.99563</v>
@@ -2564,454 +2675,512 @@
         <v>287.2454</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>134.36113</v>
+        <v>137.84983</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>537.2910599999999</v>
+        <v>542.6231</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>392.8931899999999</v>
+        <v>190.28842</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1577.52246</v>
+        <v>1816.64702</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1242.47597</v>
+        <v>3379.31971</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2124.40774</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3880.4989</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11121.835</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>16946.83011</v>
+        <v>14118.61618</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>14484.7908</v>
+        <v>-40485.23564999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>17567.57427</v>
+        <v>-54991.85304000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>18877.55869</v>
+        <v>26440.33285</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>34157.86979</v>
+        <v>-53710.1785</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>39410.37464</v>
+        <v>47378.13245999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>66725.98195</v>
+        <v>80689.60503000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>52315.00318</v>
+        <v>70712.90302</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>84717.51520000001</v>
+        <v>94896.00646999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>189263.62344</v>
+        <v>240069.88484</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>183841.10302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>249470.21403</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>328274.768</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1972.88046</v>
+        <v>1962.78057</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2642.853</v>
+        <v>3552.02807</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2658.89907</v>
+        <v>2495.42993</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3543.150599999999</v>
+        <v>5313.771390000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4250.81396</v>
+        <v>5180.461060000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9458.54831</v>
+        <v>6222.946130000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6386.75003</v>
+        <v>7225.65875</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8836.73511</v>
+        <v>9230.113210000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5961.15281</v>
+        <v>7079.769230000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9672.956479999999</v>
+        <v>10812.38847</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14913.95585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>18910.8188</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>25002.624</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>497.0097</v>
+        <v>517.2450700000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>94.23919000000001</v>
+        <v>89.74428</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2.49136</v>
+        <v>14.62221</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>24.61782</v>
+        <v>5.87262</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8.4251</v>
+        <v>85.80105999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>16.95957</v>
+        <v>61.66064</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17.69884</v>
+        <v>25.09983</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>45.87188</v>
+        <v>45.92531</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>13.85756</v>
+        <v>55.21012</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>51.68638999999999</v>
+        <v>42.59175999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1010.10114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1087.6331</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>108.291</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1475.87076</v>
+        <v>1445.5355</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2548.61381</v>
+        <v>3462.28379</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2656.40771</v>
+        <v>2480.80772</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3518.53278</v>
+        <v>5307.898770000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4242.38886</v>
+        <v>5094.66</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9441.588740000001</v>
+        <v>6161.28549</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6369.051189999999</v>
+        <v>7200.558919999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8790.863230000001</v>
+        <v>9184.187900000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5947.29525</v>
+        <v>7024.55911</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9621.27009</v>
+        <v>10769.79671</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13903.85471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17823.1857</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>24894.333</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2433.05857</v>
+        <v>8751.618460000002</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1652.15642</v>
+        <v>3365.64652</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>22844.89306</v>
+        <v>40368.83746</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2874.77454</v>
+        <v>2940.78279</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5095.09986</v>
+        <v>4961.727130000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21808.23585</v>
+        <v>24745.62711</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4167.13709</v>
+        <v>6783.898260000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>22546.67286</v>
+        <v>27519.9099</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>7716.448689999999</v>
+        <v>4620.527639999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>67162.28234999999</v>
+        <v>67504.82120999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14337.59467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18358.10575</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>14987.319</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>176.47709</v>
+        <v>388.43006</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>96.12301000000001</v>
+        <v>56.39029</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>71.5984</v>
+        <v>0.2922</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>69.85621</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>149.36945</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>675.84336</v>
+        <v>3438.76223</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>315.38881</v>
+        <v>1616.20162</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>275.5480899999999</v>
+        <v>1958.58134</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>42.7443</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>64.26518</v>
+        <v>42.48532</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1463.70123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3152.17088</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1836.015</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>478.08374</v>
+        <v>557.30572</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>145.84446</v>
+        <v>209.78483</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>270.67907</v>
+        <v>224.25116</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>488.63106</v>
+        <v>548.8769100000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>89.08505999999998</v>
+        <v>100.74881</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>162.16237</v>
+        <v>181.89656</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>214.3743</v>
+        <v>243.13439</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>361.1017900000001</v>
+        <v>398.3462</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>81.12858</v>
+        <v>91.09461999999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>819.97721</v>
+        <v>747.7705200000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>637.08782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>726.7072999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>855.995</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1778.49774</v>
+        <v>7805.88268</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1410.18895</v>
+        <v>3099.4714</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22502.61559</v>
+        <v>40144.2941</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2316.28727</v>
+        <v>2391.90588</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4856.64535</v>
+        <v>4860.97832</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>20970.23012</v>
+        <v>21124.96832</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3637.37398</v>
+        <v>4924.56225</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>21910.02298</v>
+        <v>25162.98236</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7592.57581</v>
+        <v>4529.433019999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>66278.03996000001</v>
+        <v>66714.56537</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>12236.80562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14479.22757</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12295.309</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>16486.652</v>
+        <v>7329.778290000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>15475.48738</v>
+        <v>-40298.85410000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2618.41972</v>
+        <v>-92865.26057</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>19545.93475</v>
+        <v>28813.32145</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>33313.58389</v>
+        <v>-53491.44457</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>27060.6871</v>
+        <v>28855.45148</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>68945.59489000001</v>
+        <v>81131.36552000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>38605.06543</v>
+        <v>52423.10633</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>82962.21932</v>
+        <v>97355.24806</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>131774.29757</v>
+        <v>183377.4521</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>184417.4642</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>250022.92708</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>338290.073</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3958.93308</v>
+        <v>4733.16521</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3810.16428</v>
+        <v>4133.4043</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3949.14949</v>
+        <v>4299.29512</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4522.12247</v>
+        <v>4405.63696</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7971.44563</v>
+        <v>9751.435800000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>8457.445149999998</v>
+        <v>9469.887199999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10872.3656</v>
+        <v>12555.32923</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9786.194100000001</v>
+        <v>11089.9127</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>12240.52564</v>
+        <v>14626.15675</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>28996.54225</v>
+        <v>38433.40196</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29793.45952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>41418.27209000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>46281.135</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12527.71892</v>
+        <v>2596.613080000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11665.3231</v>
+        <v>-44432.25840000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6567.56921</v>
+        <v>-97164.55568999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>15023.81228</v>
+        <v>24407.68449</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>25342.13826</v>
+        <v>-63242.88036999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>18603.24195</v>
+        <v>19385.56428</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>58073.22929</v>
+        <v>68576.03629</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>28818.87133</v>
+        <v>41333.19362999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>70721.69368000001</v>
+        <v>82729.09131</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>102777.75532</v>
+        <v>144944.05014</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>154624.00468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>208604.65499</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>292008.938</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>281</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>